--- a/BugReport_DA3.xlsx
+++ b/BugReport_DA3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\DoAn3_LtaDuyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Bug_01" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="78">
   <si>
     <t>Category</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Trong trang đăng ký, khi nhập email sai định dạng (tên miền thiếu dấu '.') thì hệ thống không thông báo lỗi</t>
-  </si>
-  <si>
-    <t>https://laluz.vn/dang-ky/</t>
   </si>
   <si>
     <t>Truy cập vào trang web</t>
@@ -387,12 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +398,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,49 +421,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2588847</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2046655</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2202963" y="1367693"/>
-          <a:ext cx="2588846" cy="2046654"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -508,7 +463,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -551,7 +506,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -594,7 +549,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -675,7 +630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -756,7 +711,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1064,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,163 +1042,161 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>45652</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1255,7 +1208,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1286,163 +1238,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1484,163 +1436,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>52</v>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1682,163 +1634,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>52</v>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1880,163 +1832,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>52</v>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2078,163 +2030,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>52</v>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2253,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2276,163 +2228,163 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>65</v>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
